--- a/Experiment1/phy1011/data.xlsx
+++ b/Experiment1/phy1011/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\programming\python\PhysicsExperiment\Experiment1\phy1011\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8073339-D657-4055-BEFA-A51DBD4A9ABD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57CE4676-4FCF-43BB-8B3C-A6B89F107434}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10596" yWindow="408" windowWidth="17280" windowHeight="10320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-456" yWindow="708" windowWidth="17280" windowHeight="10320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -596,7 +596,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/Experiment1/phy1011/data.xlsx
+++ b/Experiment1/phy1011/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\programming\python\PhysicsExperiment\Experiment1\phy1011\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57CE4676-4FCF-43BB-8B3C-A6B89F107434}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6411FA4-0931-46B4-922D-F692D3C4A9F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-456" yWindow="708" windowWidth="17280" windowHeight="10320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1524" yWindow="1188" windowWidth="17280" windowHeight="10320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -283,14 +283,26 @@
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -298,20 +310,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -596,7 +596,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -607,7 +607,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -619,36 +619,36 @@
       <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="8">
+      <c r="A4" s="10"/>
+      <c r="B4" s="3">
         <v>39.61</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="3">
         <v>39.65</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="3">
         <v>39.630000000000003</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="8">
-        <v>98.5</v>
+      <c r="G4" s="3">
+        <v>8.5</v>
       </c>
       <c r="H4" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="3">
         <v>0.02</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -665,20 +665,20 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="8">
+      <c r="A6" s="12"/>
+      <c r="B6" s="3">
         <v>111.12</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="3">
         <v>111.13</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="3">
         <v>111.12</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="3">
         <v>9.8011999999999997</v>
       </c>
     </row>
@@ -689,20 +689,20 @@
       <c r="D7" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="3">
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -734,25 +734,25 @@
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="3">
         <v>0.85499999999999998</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="3">
         <v>0.85399999999999998</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="3">
         <v>0.85399999999999998</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="3">
         <v>0.85599999999999998</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="3">
         <v>0.85799999999999998</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="3">
         <v>0.86899999999999999</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="3">
         <v>0.85499999999999998</v>
       </c>
       <c r="I10" t="s">
@@ -763,25 +763,25 @@
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="3">
         <v>0.79600000000000004</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="3">
         <v>0.79500000000000004</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="3">
         <v>0.79500000000000004</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="3">
         <v>0.79700000000000004</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="3">
         <v>0.79900000000000004</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="3">
         <v>0.81</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="3">
         <v>0.79600000000000004</v>
       </c>
       <c r="I11" t="s">
@@ -789,17 +789,17 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -834,28 +834,28 @@
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="4">
         <v>10</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="4">
         <v>12</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="4">
         <v>14</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="4">
         <v>16</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="4">
         <v>18</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="4">
         <v>20</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="4">
         <v>22</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="4">
         <v>24</v>
       </c>
     </row>
@@ -863,28 +863,28 @@
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="3">
         <v>6.72</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="3">
         <v>7.21</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="3">
         <v>7.65</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="3">
         <v>8.11</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="3">
         <v>8.5500000000000007</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="3">
         <v>8.99</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="3">
         <v>9.4700000000000006</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I16" s="3">
         <v>9.91</v>
       </c>
     </row>
@@ -892,28 +892,28 @@
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="3">
         <v>6.74</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="3">
         <v>7.22</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="3">
         <v>7.64</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="3">
         <v>8.1199999999999992</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="3">
         <v>8.57</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="3">
         <v>9.02</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="3">
         <v>9.48</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I17" s="3">
         <v>9.9</v>
       </c>
     </row>
@@ -921,33 +921,33 @@
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="3">
         <v>6.73</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="3">
         <v>7.2149999999999999</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="3">
         <v>7.6449999999999996</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="3">
         <v>8.1150000000000002</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="3">
         <v>8.56</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="3">
         <v>9.0050000000000008</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18" s="3">
         <v>9.4749999999999996</v>
       </c>
-      <c r="I18" s="8">
+      <c r="I18" s="3">
         <v>9.9049999999999994</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D19" t="s">
@@ -955,28 +955,28 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="6">
         <v>2</v>
       </c>
       <c r="D20" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="3">
         <v>0.3</v>
       </c>
       <c r="F20" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="3">
         <v>0.5</v>
       </c>
       <c r="H20" t="s">
         <v>27</v>
       </c>
-      <c r="I20" s="8">
+      <c r="I20" s="3">
         <v>0.02</v>
       </c>
     </row>

--- a/Experiment1/phy1011/data.xlsx
+++ b/Experiment1/phy1011/data.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\programming\python\PhysicsExperiment\Experiment1\phy1011\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\PhysicsExperiment\Experiment1\phy1011\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6411FA4-0931-46B4-922D-F692D3C4A9F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05698EC3-0538-4EA1-833C-97A6103BC251}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1524" yWindow="1188" windowWidth="17280" windowHeight="10320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15855" yWindow="2700" windowWidth="21600" windowHeight="11505" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="53">
   <si>
     <t>i</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -153,6 +154,90 @@
   </si>
   <si>
     <t>g(m/s^2)=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扭转法测转动惯量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塑料圆柱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金属圆筒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圆球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金属杆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>质量/g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直径(长度)/mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次计数周期个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摆动周期/s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塑料圆柱+载物盘T1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金属载物盘T0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金属圆筒+载物盘T2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塑料球T3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金属细长杆T4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摆动周期（验证平行轴定理）/s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑块1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑块2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示：如果只给了一个滑块的质量请将滑块1与滑块2的质量填入相同数值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -207,7 +292,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -276,11 +361,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -298,6 +420,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -312,6 +467,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -595,19 +777,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="20" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -623,8 +805,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="21"/>
       <c r="B4" s="3">
         <v>39.61</v>
       </c>
@@ -647,8 +829,8 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="22" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -664,8 +846,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="23"/>
       <c r="B6" s="3">
         <v>111.12</v>
       </c>
@@ -682,7 +864,7 @@
         <v>9.8011999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -693,18 +875,18 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -730,7 +912,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
@@ -759,7 +941,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -788,20 +970,20 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -830,7 +1012,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -859,7 +1041,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -888,7 +1070,7 @@
         <v>9.91</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -917,7 +1099,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -946,7 +1128,7 @@
         <v>9.9049999999999994</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>28</v>
       </c>
@@ -954,7 +1136,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>29</v>
       </c>
@@ -991,4 +1173,469 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66421AB1-2A14-4987-8CF4-524360C658A7}">
+  <dimension ref="A1:L25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.375" customWidth="1"/>
+    <col min="3" max="3" width="4.5" customWidth="1"/>
+    <col min="7" max="7" width="7.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+    </row>
+    <row r="3" spans="1:12" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="10"/>
+      <c r="B3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="30"/>
+      <c r="E3" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="12">
+        <v>711.71</v>
+      </c>
+      <c r="C4" s="31">
+        <v>697.75</v>
+      </c>
+      <c r="D4" s="32"/>
+      <c r="E4" s="14">
+        <v>1242.4100000000001</v>
+      </c>
+      <c r="F4" s="14">
+        <v>131.5</v>
+      </c>
+      <c r="G4" s="14">
+        <v>239.84</v>
+      </c>
+      <c r="H4" s="14">
+        <v>238.57</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="33">
+        <v>99.95</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="33">
+        <v>93.85</v>
+      </c>
+      <c r="E5" s="33">
+        <v>114.6</v>
+      </c>
+      <c r="F5" s="33">
+        <v>610</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="16">
+        <v>6.02</v>
+      </c>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="23"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="14">
+        <v>34.97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="23"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="14">
+        <v>99.95</v>
+      </c>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="14">
+        <v>33.049999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="17">
+        <v>5</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="8">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8">
+        <v>2</v>
+      </c>
+      <c r="F12" s="8">
+        <v>3</v>
+      </c>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="26"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="17">
+        <v>4.21</v>
+      </c>
+      <c r="E13" s="17">
+        <v>4.21</v>
+      </c>
+      <c r="F13" s="17">
+        <v>4.2</v>
+      </c>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="26"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="17">
+        <v>6.8</v>
+      </c>
+      <c r="E14" s="17">
+        <v>6.8</v>
+      </c>
+      <c r="F14" s="17">
+        <v>6.8</v>
+      </c>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="26"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="17">
+        <v>8.4</v>
+      </c>
+      <c r="E15" s="17">
+        <v>8.39</v>
+      </c>
+      <c r="F15" s="17">
+        <v>8.3800000000000008</v>
+      </c>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="26"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="17">
+        <v>7.23</v>
+      </c>
+      <c r="E16" s="17">
+        <v>7.23</v>
+      </c>
+      <c r="F16" s="17">
+        <v>7.23</v>
+      </c>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="26"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="17">
+        <v>11.57</v>
+      </c>
+      <c r="E17" s="17">
+        <v>11.6</v>
+      </c>
+      <c r="F17" s="17">
+        <v>11.59</v>
+      </c>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="8">
+        <v>1</v>
+      </c>
+      <c r="E20" s="8">
+        <v>2</v>
+      </c>
+      <c r="F20" s="8">
+        <v>3</v>
+      </c>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="25">
+        <v>5</v>
+      </c>
+      <c r="B21" s="26"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="17">
+        <v>13.06</v>
+      </c>
+      <c r="E21" s="17">
+        <v>13.05</v>
+      </c>
+      <c r="F21" s="17">
+        <v>13.06</v>
+      </c>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="25">
+        <v>10</v>
+      </c>
+      <c r="B22" s="26"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="17">
+        <v>16.78</v>
+      </c>
+      <c r="E22" s="17">
+        <v>16.760000000000002</v>
+      </c>
+      <c r="F22" s="17">
+        <v>16.760000000000002</v>
+      </c>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="25">
+        <v>15</v>
+      </c>
+      <c r="B23" s="26"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="17">
+        <v>21.7</v>
+      </c>
+      <c r="E23" s="17">
+        <v>21.74</v>
+      </c>
+      <c r="F23" s="17">
+        <v>21.72</v>
+      </c>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="25">
+        <v>20</v>
+      </c>
+      <c r="B24" s="26"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="17">
+        <v>27.07</v>
+      </c>
+      <c r="E24" s="17">
+        <v>27.09</v>
+      </c>
+      <c r="F24" s="17">
+        <v>27.15</v>
+      </c>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="25">
+        <v>25</v>
+      </c>
+      <c r="B25" s="26"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="17">
+        <v>33.22</v>
+      </c>
+      <c r="E25" s="17">
+        <v>33.21</v>
+      </c>
+      <c r="F25" s="17">
+        <v>33.229999999999997</v>
+      </c>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Experiment1/phy1011/data.xlsx
+++ b/Experiment1/phy1011/data.xlsx
@@ -1,32 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\PhysicsExperiment\Experiment1\phy1011\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\PhisicsExperiment\Experiment1\phy1011\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05698EC3-0538-4EA1-833C-97A6103BC251}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F91FF0E-EA43-4EC7-A5D0-7C73E734A6A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15855" yWindow="2700" windowWidth="21600" windowHeight="11505" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="580" yWindow="840" windowWidth="20770" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="56">
   <si>
     <t>i</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -239,6 +250,37 @@
   <si>
     <t>提示：如果只给了一个滑块的质量请将滑块1与滑块2的质量填入相同数值</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">调整数据组数：见代码中 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t># 读取D表格</t>
+    </r>
+  </si>
+  <si>
+    <t>修改后这里不用管了。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">调整数据组数：见代码中 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t># 读取c表格</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -246,9 +288,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.000_ "/>
+    <numFmt numFmtId="164" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,8 +319,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -291,8 +339,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -398,20 +458,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -438,9 +507,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -450,6 +516,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -468,6 +538,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -477,23 +565,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -775,21 +851,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="23" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -805,22 +881,22 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="21"/>
-      <c r="B4" s="3">
-        <v>39.61</v>
-      </c>
-      <c r="C4" s="3">
-        <v>39.65</v>
-      </c>
-      <c r="D4" s="3">
-        <v>39.630000000000003</v>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="24"/>
+      <c r="B4" s="21">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="C4" s="21">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="D4" s="21">
+        <v>36.799999999999997</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="3">
-        <v>8.5</v>
+        <v>2</v>
       </c>
       <c r="H4" t="s">
         <v>11</v>
@@ -829,8 +905,8 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="22" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="25" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -846,16 +922,16 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="23"/>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="26"/>
       <c r="B6" s="3">
-        <v>111.12</v>
+        <v>103.9</v>
       </c>
       <c r="C6" s="3">
-        <v>111.13</v>
+        <v>103.9</v>
       </c>
       <c r="D6" s="3">
-        <v>111.12</v>
+        <v>103.9</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>31</v>
@@ -864,7 +940,7 @@
         <v>9.8011999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -872,21 +948,30 @@
         <v>14</v>
       </c>
       <c r="E7" s="3">
-        <v>5.8999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
+        <v>-3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="O8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -908,82 +993,127 @@
       <c r="G9" s="1">
         <v>6</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="5">
+        <v>7</v>
+      </c>
+      <c r="I9" s="5">
+        <v>8</v>
+      </c>
+      <c r="J9" s="5">
+        <v>9</v>
+      </c>
+      <c r="K9" s="5">
+        <v>10</v>
+      </c>
+      <c r="O9" s="18" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="P9" s="19"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="3">
-        <v>0.85499999999999998</v>
+        <v>0.73799999999999999</v>
       </c>
       <c r="C10" s="3">
-        <v>0.85399999999999998</v>
+        <v>0.74199999999999999</v>
       </c>
       <c r="D10" s="3">
-        <v>0.85399999999999998</v>
+        <v>0.751</v>
       </c>
       <c r="E10" s="3">
-        <v>0.85599999999999998</v>
+        <v>0.75900000000000001</v>
       </c>
       <c r="F10" s="3">
-        <v>0.85799999999999998</v>
+        <v>0.752</v>
       </c>
       <c r="G10" s="3">
-        <v>0.86899999999999999</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0.85499999999999998</v>
-      </c>
-      <c r="I10" t="s">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="H10" s="20">
+        <v>0.74</v>
+      </c>
+      <c r="I10" s="20">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="J10" s="20">
+        <v>0.753</v>
+      </c>
+      <c r="K10" s="20">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="O10" s="18">
+        <f>AVERAGE(B10:K10)</f>
+        <v>0.74730000000000008</v>
+      </c>
+      <c r="P10" s="19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="3">
-        <v>0.79600000000000004</v>
+        <v>0.77200000000000002</v>
       </c>
       <c r="C11" s="3">
-        <v>0.79500000000000004</v>
+        <v>0.77700000000000002</v>
       </c>
       <c r="D11" s="3">
-        <v>0.79500000000000004</v>
+        <v>0.78600000000000003</v>
       </c>
       <c r="E11" s="3">
-        <v>0.79700000000000004</v>
+        <v>0.79400000000000004</v>
       </c>
       <c r="F11" s="3">
-        <v>0.79900000000000004</v>
+        <v>0.78700000000000003</v>
       </c>
       <c r="G11" s="3">
-        <v>0.81</v>
-      </c>
-      <c r="H11" s="3">
-        <v>0.79600000000000004</v>
-      </c>
-      <c r="I11" t="s">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="H11" s="20">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="I11" s="20">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="J11" s="20">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="K11" s="20">
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="O11" s="18">
+        <f>AVERAGE(B11:K11)</f>
+        <v>0.78220000000000012</v>
+      </c>
+      <c r="P11" s="19" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="24" t="s">
+    <row r="13" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -1011,124 +1141,154 @@
       <c r="I14" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J14">
+        <v>9</v>
+      </c>
+      <c r="K14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="4">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="C15" s="4">
-        <v>12</v>
+        <v>0.2</v>
       </c>
       <c r="D15" s="4">
-        <v>14</v>
+        <v>0.3</v>
       </c>
       <c r="E15" s="4">
-        <v>16</v>
+        <v>0.4</v>
       </c>
       <c r="F15" s="4">
-        <v>18</v>
+        <v>0.5</v>
       </c>
       <c r="G15" s="4">
-        <v>20</v>
+        <v>0.6</v>
       </c>
       <c r="H15" s="4">
-        <v>22</v>
+        <v>0.7</v>
       </c>
       <c r="I15" s="4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.8</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="K15" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="3">
-        <v>6.72</v>
-      </c>
-      <c r="C16" s="3">
-        <v>7.21</v>
-      </c>
-      <c r="D16" s="3">
-        <v>7.65</v>
-      </c>
-      <c r="E16" s="3">
-        <v>8.11</v>
-      </c>
-      <c r="F16" s="3">
-        <v>8.5500000000000007</v>
-      </c>
-      <c r="G16" s="3">
-        <v>8.99</v>
-      </c>
-      <c r="H16" s="3">
-        <v>9.4700000000000006</v>
-      </c>
-      <c r="I16" s="3">
-        <v>9.91</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B16" s="21">
+        <v>1.26</v>
+      </c>
+      <c r="C16" s="21">
+        <v>2</v>
+      </c>
+      <c r="D16" s="21">
+        <v>2.79</v>
+      </c>
+      <c r="E16" s="21">
+        <v>3.52</v>
+      </c>
+      <c r="F16" s="21">
+        <v>4.29</v>
+      </c>
+      <c r="G16" s="21">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="H16" s="21">
+        <v>5.9</v>
+      </c>
+      <c r="I16" s="21">
+        <v>6.65</v>
+      </c>
+      <c r="J16" s="21">
+        <v>7.5</v>
+      </c>
+      <c r="K16" s="21">
+        <v>8.43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="3">
-        <v>6.74</v>
-      </c>
-      <c r="C17" s="3">
-        <v>7.22</v>
-      </c>
-      <c r="D17" s="3">
-        <v>7.64</v>
-      </c>
-      <c r="E17" s="3">
-        <v>8.1199999999999992</v>
-      </c>
-      <c r="F17" s="3">
-        <v>8.57</v>
-      </c>
-      <c r="G17" s="3">
-        <v>9.02</v>
-      </c>
-      <c r="H17" s="3">
-        <v>9.48</v>
-      </c>
-      <c r="I17" s="3">
-        <v>9.9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B17" s="21">
+        <v>1.55</v>
+      </c>
+      <c r="C17" s="21">
+        <v>2.21</v>
+      </c>
+      <c r="D17" s="21">
+        <v>3.02</v>
+      </c>
+      <c r="E17" s="21">
+        <v>3.75</v>
+      </c>
+      <c r="F17" s="21">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="G17" s="21">
+        <v>5.33</v>
+      </c>
+      <c r="H17" s="21">
+        <v>6.15</v>
+      </c>
+      <c r="I17" s="21">
+        <v>6.86</v>
+      </c>
+      <c r="J17" s="21">
+        <v>7.62</v>
+      </c>
+      <c r="K17" s="21">
+        <v>8.44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="3">
-        <v>6.73</v>
+        <v>1.405</v>
       </c>
       <c r="C18" s="3">
-        <v>7.2149999999999999</v>
+        <v>2.105</v>
       </c>
       <c r="D18" s="3">
-        <v>7.6449999999999996</v>
+        <v>2.9050000000000002</v>
       </c>
       <c r="E18" s="3">
-        <v>8.1150000000000002</v>
+        <v>3.6349999999999998</v>
       </c>
       <c r="F18" s="3">
-        <v>8.56</v>
+        <v>4.4649999999999999</v>
       </c>
       <c r="G18" s="3">
-        <v>9.0050000000000008</v>
+        <v>5.2200000000000006</v>
       </c>
       <c r="H18" s="3">
-        <v>9.4749999999999996</v>
+        <v>6.0250000000000004</v>
       </c>
       <c r="I18" s="3">
-        <v>9.9049999999999994</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+        <v>6.7550000000000008</v>
+      </c>
+      <c r="J18" s="3">
+        <v>7.5600000000000005</v>
+      </c>
+      <c r="K18" s="3">
+        <v>8.4349999999999987</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>28</v>
       </c>
@@ -1136,12 +1296,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B20" s="6">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="D20" t="s">
         <v>25</v>
@@ -1163,11 +1323,13 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A13:I13"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="J13:M13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1179,30 +1341,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66421AB1-2A14-4987-8CF4-524360C658A7}">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.375" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
     <col min="3" max="3" width="4.5" customWidth="1"/>
     <col min="7" max="7" width="7.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -1212,15 +1374,15 @@
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
     </row>
-    <row r="3" spans="1:12" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
       <c r="B3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="30"/>
+      <c r="D3" s="31"/>
       <c r="E3" s="10" t="s">
         <v>35</v>
       </c>
@@ -1230,23 +1392,23 @@
       <c r="G3" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="12">
-        <v>711.71</v>
-      </c>
-      <c r="C4" s="31">
-        <v>697.75</v>
-      </c>
-      <c r="D4" s="32"/>
+        <v>1111.3900000000001</v>
+      </c>
+      <c r="C4" s="32">
+        <v>704.63333</v>
+      </c>
+      <c r="D4" s="33"/>
       <c r="E4" s="14">
         <v>1242.4100000000001</v>
       </c>
@@ -1259,49 +1421,49 @@
       <c r="H4" s="14">
         <v>238.57</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="23" t="s">
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="33">
-        <v>99.95</v>
-      </c>
-      <c r="C5" s="23" t="s">
+      <c r="B5" s="37">
+        <v>100.26</v>
+      </c>
+      <c r="C5" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="33">
-        <v>93.85</v>
-      </c>
-      <c r="E5" s="33">
+      <c r="D5" s="37">
+        <v>94.06</v>
+      </c>
+      <c r="E5" s="37">
         <v>114.6</v>
       </c>
-      <c r="F5" s="33">
+      <c r="F5" s="37">
         <v>610</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="15">
         <v>6.02</v>
       </c>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="23"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="26"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
       <c r="G6" s="10" t="s">
         <v>39</v>
       </c>
@@ -1309,17 +1471,17 @@
         <v>34.97</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="23"/>
-      <c r="B7" s="33"/>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="26"/>
+      <c r="B7" s="37"/>
       <c r="C7" s="10" t="s">
         <v>39</v>
       </c>
       <c r="D7" s="14">
-        <v>99.95</v>
-      </c>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
+        <v>100.26</v>
+      </c>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
       <c r="G7" s="10" t="s">
         <v>40</v>
       </c>
@@ -1327,7 +1489,7 @@
         <v>33.049999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -1337,12 +1499,12 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="17">
+      <c r="B9" s="22"/>
+      <c r="C9" s="16">
         <v>5</v>
       </c>
       <c r="D9" s="13"/>
@@ -1351,7 +1513,7 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -1361,22 +1523,22 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="19" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
       <c r="D12" s="8">
         <v>1</v>
       </c>
@@ -1386,100 +1548,116 @@
       <c r="F12" s="8">
         <v>3</v>
       </c>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="25" t="s">
+      <c r="G12" s="13">
+        <v>4</v>
+      </c>
+      <c r="H12" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="17">
-        <v>4.21</v>
-      </c>
-      <c r="E13" s="17">
-        <v>4.21</v>
-      </c>
-      <c r="F13" s="17">
-        <v>4.2</v>
-      </c>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="25" t="s">
+      <c r="B13" s="35"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="16">
+        <v>7.9480000000000004</v>
+      </c>
+      <c r="E13" s="16">
+        <v>8.8919999999999995</v>
+      </c>
+      <c r="F13" s="16">
+        <v>7.9320000000000004</v>
+      </c>
+      <c r="G13" s="13">
+        <v>7.22</v>
+      </c>
+      <c r="H13" s="13">
+        <v>7.94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="17">
-        <v>6.8</v>
-      </c>
-      <c r="E14" s="17">
-        <v>6.8</v>
-      </c>
-      <c r="F14" s="17">
-        <v>6.8</v>
-      </c>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="25" t="s">
+      <c r="B14" s="35"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="16">
+        <v>15.38</v>
+      </c>
+      <c r="E14" s="16">
+        <v>15.512</v>
+      </c>
+      <c r="F14" s="16">
+        <v>15.513999999999999</v>
+      </c>
+      <c r="G14" s="13">
+        <v>15.52</v>
+      </c>
+      <c r="H14" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="17">
-        <v>8.4</v>
-      </c>
-      <c r="E15" s="17">
-        <v>8.39</v>
-      </c>
-      <c r="F15" s="17">
-        <v>8.3800000000000008</v>
-      </c>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="25" t="s">
+      <c r="B15" s="35"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="16">
+        <v>16.375</v>
+      </c>
+      <c r="E15" s="16">
+        <v>16.369</v>
+      </c>
+      <c r="F15" s="16">
+        <v>16.372</v>
+      </c>
+      <c r="G15" s="13">
+        <v>16.134</v>
+      </c>
+      <c r="H15" s="13">
+        <v>16.207000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="17">
+      <c r="B16" s="35"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="16">
         <v>7.23</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="16">
         <v>7.23</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="16">
         <v>7.23</v>
       </c>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="25" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="17">
+      <c r="B17" s="35"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="16">
         <v>11.57</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="16">
         <v>11.6</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F17" s="16">
         <v>11.59</v>
       </c>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -1489,22 +1667,22 @@
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="19" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
       <c r="D20" s="8">
         <v>1</v>
       </c>
@@ -1517,91 +1695,91 @@
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="34">
         <v>5</v>
       </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="17">
+      <c r="B21" s="35"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="16">
         <v>13.06</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E21" s="16">
         <v>13.05</v>
       </c>
-      <c r="F21" s="17">
+      <c r="F21" s="16">
         <v>13.06</v>
       </c>
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="34">
         <v>10</v>
       </c>
-      <c r="B22" s="26"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="17">
+      <c r="B22" s="35"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="16">
         <v>16.78</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E22" s="16">
         <v>16.760000000000002</v>
       </c>
-      <c r="F22" s="17">
+      <c r="F22" s="16">
         <v>16.760000000000002</v>
       </c>
       <c r="G22" s="13"/>
       <c r="H22" s="13"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="34">
         <v>15</v>
       </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="17">
+      <c r="B23" s="35"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="16">
         <v>21.7</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E23" s="16">
         <v>21.74</v>
       </c>
-      <c r="F23" s="17">
+      <c r="F23" s="16">
         <v>21.72</v>
       </c>
       <c r="G23" s="13"/>
       <c r="H23" s="13"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="34">
         <v>20</v>
       </c>
-      <c r="B24" s="26"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="17">
+      <c r="B24" s="35"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="16">
         <v>27.07</v>
       </c>
-      <c r="E24" s="17">
+      <c r="E24" s="16">
         <v>27.09</v>
       </c>
-      <c r="F24" s="17">
+      <c r="F24" s="16">
         <v>27.15</v>
       </c>
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="34">
         <v>25</v>
       </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="17">
+      <c r="B25" s="35"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="16">
         <v>33.22</v>
       </c>
-      <c r="E25" s="17">
+      <c r="E25" s="16">
         <v>33.21</v>
       </c>
-      <c r="F25" s="17">
+      <c r="F25" s="16">
         <v>33.229999999999997</v>
       </c>
       <c r="G25" s="13"/>
@@ -1609,6 +1787,16 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="E5:E7"/>
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
@@ -1623,16 +1811,6 @@
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Experiment1/phy1011/data.xlsx
+++ b/Experiment1/phy1011/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\PhisicsExperiment\Experiment1\phy1011\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F91FF0E-EA43-4EC7-A5D0-7C73E734A6A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A2B807B-0E48-4092-9A4E-1D35E7B1B067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="840" windowWidth="20770" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="580" yWindow="840" windowWidth="20770" windowHeight="9970" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -184,10 +184,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>金属杆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>质量/g</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -282,13 +278,17 @@
       <t># 读取c表格</t>
     </r>
   </si>
+  <si>
+    <t>细长杆</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000_ "/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -352,7 +352,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -467,11 +467,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -568,7 +579,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -853,7 +870,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -962,13 +979,13 @@
       <c r="F8" s="22"/>
       <c r="G8" s="22"/>
       <c r="H8" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I8" s="29"/>
       <c r="J8" s="29"/>
       <c r="K8" s="29"/>
       <c r="O8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
@@ -1107,7 +1124,7 @@
       <c r="H13" s="27"/>
       <c r="I13" s="27"/>
       <c r="J13" s="28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K13" s="29"/>
       <c r="L13" s="29"/>
@@ -1341,8 +1358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66421AB1-2A14-4987-8CF4-524360C658A7}">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1353,16 +1370,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="13"/>
@@ -1387,20 +1404,20 @@
         <v>35</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="G3" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="10" t="s">
         <v>50</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>51</v>
       </c>
       <c r="K3" s="17"/>
       <c r="L3" s="17"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" s="12">
         <v>1111.3900000000001</v>
@@ -1410,19 +1427,19 @@
       </c>
       <c r="D4" s="33"/>
       <c r="E4" s="14">
-        <v>1242.4100000000001</v>
+        <v>1062.5999999999999</v>
       </c>
       <c r="F4" s="14">
-        <v>131.5</v>
+        <v>115.25</v>
       </c>
       <c r="G4" s="14">
-        <v>239.84</v>
+        <v>242.75</v>
       </c>
       <c r="H4" s="14">
-        <v>238.57</v>
+        <v>242.75</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J4" s="17"/>
       <c r="K4" s="17"/>
@@ -1430,28 +1447,28 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" s="37">
         <v>100.26</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" s="37">
         <v>94.06</v>
       </c>
       <c r="E5" s="37">
-        <v>114.6</v>
+        <v>110.1</v>
       </c>
       <c r="F5" s="37">
-        <v>610</v>
+        <v>535.5</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H5" s="15">
-        <v>6.02</v>
+        <v>6.04</v>
       </c>
       <c r="J5" s="17"/>
       <c r="K5" s="17"/>
@@ -1465,17 +1482,17 @@
       <c r="E6" s="37"/>
       <c r="F6" s="37"/>
       <c r="G6" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H6" s="14">
-        <v>34.97</v>
+        <v>35.020000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="26"/>
       <c r="B7" s="37"/>
       <c r="C7" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" s="14">
         <v>100.26</v>
@@ -1483,10 +1500,10 @@
       <c r="E7" s="37"/>
       <c r="F7" s="37"/>
       <c r="G7" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" s="14">
-        <v>33.049999999999997</v>
+        <v>33.119999999999997</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -1501,11 +1518,11 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9" s="22"/>
       <c r="C9" s="16">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
@@ -1524,16 +1541,16 @@
       <c r="H10" s="13"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
+      <c r="A11" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="22"/>
@@ -1548,114 +1565,122 @@
       <c r="F12" s="8">
         <v>3</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="8">
         <v>4</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H12" s="8">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B13" s="35"/>
       <c r="C13" s="36"/>
-      <c r="D13" s="16">
+      <c r="D13" s="40">
         <v>7.9480000000000004</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="40">
         <v>8.8919999999999995</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="40">
         <v>7.9320000000000004</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="40">
         <v>7.22</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H13" s="40">
         <v>7.94</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B14" s="35"/>
       <c r="C14" s="36"/>
-      <c r="D14" s="16">
+      <c r="D14" s="40">
         <v>15.38</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="40">
         <v>15.512</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="40">
         <v>15.513999999999999</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G14" s="40">
         <v>15.52</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14" s="40">
         <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B15" s="35"/>
       <c r="C15" s="36"/>
-      <c r="D15" s="16">
+      <c r="D15" s="40">
         <v>16.375</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="40">
         <v>16.369</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F15" s="40">
         <v>16.372</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G15" s="40">
         <v>16.134</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H15" s="40">
         <v>16.207000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B16" s="35"/>
       <c r="C16" s="36"/>
-      <c r="D16" s="16">
-        <v>7.23</v>
-      </c>
-      <c r="E16" s="16">
-        <v>7.23</v>
-      </c>
-      <c r="F16" s="16">
-        <v>7.23</v>
-      </c>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
+      <c r="D16" s="40">
+        <v>14.462</v>
+      </c>
+      <c r="E16" s="40">
+        <v>14.371</v>
+      </c>
+      <c r="F16" s="40">
+        <v>14.456</v>
+      </c>
+      <c r="G16" s="40">
+        <v>14.613</v>
+      </c>
+      <c r="H16" s="40">
+        <v>14.468</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B17" s="35"/>
       <c r="C17" s="36"/>
-      <c r="D17" s="16">
-        <v>11.57</v>
-      </c>
-      <c r="E17" s="16">
-        <v>11.6</v>
-      </c>
-      <c r="F17" s="16">
-        <v>11.59</v>
-      </c>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
+      <c r="D17" s="40">
+        <v>43.087000000000003</v>
+      </c>
+      <c r="E17" s="40">
+        <v>48.92</v>
+      </c>
+      <c r="F17" s="40">
+        <v>45.591999999999999</v>
+      </c>
+      <c r="G17" s="40">
+        <v>46.69</v>
+      </c>
+      <c r="H17" s="40">
+        <v>44.115000000000002</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="13"/>
@@ -1669,7 +1694,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B19" s="22"/>
       <c r="C19" s="22"/>
@@ -1810,7 +1835,7 @@
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A11:H11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
